--- a/example/info/01 raw info.xlsx
+++ b/example/info/01 raw info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>rate</t>
         </is>
@@ -468,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>testID_001</t>
+          <t>test_ID_001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,24 +486,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>testID_002</t>
+          <t>test_ID_002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,24 +519,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>testID_003</t>
+          <t>test_ID_003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,24 +552,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>testID_004</t>
+          <t>test_ID_004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -571,24 +585,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>testID_005</t>
+          <t>test_ID_005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,24 +618,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>testID_006</t>
+          <t>test_ID_006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -631,24 +651,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>testID_007</t>
+          <t>test_ID_007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -661,24 +684,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>testID_008</t>
+          <t>test_ID_008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,24 +717,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>testID_009</t>
+          <t>test_ID_009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -721,24 +750,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>testID_010</t>
+          <t>test_ID_010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -751,24 +783,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>testID_011</t>
+          <t>test_ID_011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -781,24 +816,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>testID_012</t>
+          <t>test_ID_012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,24 +849,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>testID_013</t>
+          <t>test_ID_013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -841,24 +882,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>150</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>testID_014</t>
+          <t>test_ID_014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -871,24 +915,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>150</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>testID_015</t>
+          <t>test_ID_015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -901,24 +948,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>150</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>testID_016</t>
+          <t>test_ID_016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -931,24 +981,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>150</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testID_017</t>
+          <t>test_ID_017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -961,24 +1014,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>150</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testID_018</t>
+          <t>test_ID_018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -991,24 +1047,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>150</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testID_019</t>
+          <t>test_ID_019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1021,24 +1080,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>150</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testID_020</t>
+          <t>test_ID_020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1051,24 +1113,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>150</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testID_021</t>
+          <t>test_ID_021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1081,24 +1146,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testID_022</t>
+          <t>test_ID_022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1111,24 +1179,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testID_023</t>
+          <t>test_ID_023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1141,24 +1212,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>testID_024</t>
+          <t>test_ID_024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1171,24 +1245,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>testID_025</t>
+          <t>test_ID_025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1201,24 +1278,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>testID_026</t>
+          <t>test_ID_026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1231,24 +1311,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>testID_027</t>
+          <t>test_ID_027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1261,24 +1344,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>testID_028</t>
+          <t>test_ID_028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1291,24 +1377,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>testID_029</t>
+          <t>test_ID_029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1321,24 +1410,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>testID_030</t>
+          <t>test_ID_030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1351,24 +1443,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>testID_031</t>
+          <t>test_ID_031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1381,24 +1476,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>250</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>testID_032</t>
+          <t>test_ID_032</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1411,24 +1509,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>250</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>testID_033</t>
+          <t>test_ID_033</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1441,24 +1542,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>250</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>testID_034</t>
+          <t>test_ID_034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1471,24 +1575,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>250</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>testID_035</t>
+          <t>test_ID_035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1501,24 +1608,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>250</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>testID_036</t>
+          <t>test_ID_036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1531,24 +1641,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>250</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>testID_037</t>
+          <t>test_ID_037</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1561,24 +1674,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>250</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>testID_038</t>
+          <t>test_ID_038</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1591,24 +1707,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>250</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>testID_039</t>
+          <t>test_ID_039</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1621,24 +1740,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>250</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>testID_040</t>
+          <t>test_ID_040</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1651,24 +1773,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>250</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>testID_041</t>
+          <t>test_ID_041</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1681,24 +1806,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>250</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>testID_042</t>
+          <t>test_ID_042</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1711,24 +1839,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>250</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>testID_043</t>
+          <t>test_ID_043</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1741,24 +1872,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>300</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>testID_044</t>
+          <t>test_ID_044</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1771,24 +1905,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>300</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>testID_045</t>
+          <t>test_ID_045</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1801,24 +1938,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>300</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>testID_046</t>
+          <t>test_ID_046</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1831,24 +1971,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>300</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>testID_047</t>
+          <t>test_ID_047</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1861,24 +2004,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>300</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>testID_048</t>
+          <t>test_ID_048</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1891,24 +2037,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>300</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>testID_049</t>
+          <t>test_ID_049</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1921,24 +2070,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>300</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>testID_050</t>
+          <t>test_ID_050</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1951,24 +2103,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>300</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>testID_051</t>
+          <t>test_ID_051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1981,24 +2136,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>300</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>testID_052</t>
+          <t>test_ID_052</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2011,24 +2169,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>300</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>testID_053</t>
+          <t>test_ID_053</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2041,24 +2202,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>300</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>testID_054</t>
+          <t>test_ID_054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2071,24 +2235,27 @@
           <t>P</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>300</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>testID_055</t>
+          <t>test_ID_055</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2101,24 +2268,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>testID_056</t>
+          <t>test_ID_056</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2131,24 +2301,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>testID_057</t>
+          <t>test_ID_057</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2161,24 +2334,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>testID_058</t>
+          <t>test_ID_058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2191,24 +2367,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>testID_059</t>
+          <t>test_ID_059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2221,24 +2400,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>testID_060</t>
+          <t>test_ID_060</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2251,24 +2433,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>testID_061</t>
+          <t>test_ID_061</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2281,24 +2466,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>testID_062</t>
+          <t>test_ID_062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2311,24 +2499,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>testID_063</t>
+          <t>test_ID_063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2341,24 +2532,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>testID_064</t>
+          <t>test_ID_064</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2371,24 +2565,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>testID_065</t>
+          <t>test_ID_065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2401,24 +2598,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>20</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>testID_066</t>
+          <t>test_ID_066</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2431,24 +2631,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>testID_067</t>
+          <t>test_ID_067</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2461,24 +2664,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>testID_068</t>
+          <t>test_ID_068</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2491,24 +2697,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>testID_069</t>
+          <t>test_ID_069</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2521,24 +2730,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="n">
+        <v>20</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>testID_070</t>
+          <t>test_ID_070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2551,24 +2763,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>testID_071</t>
+          <t>test_ID_071</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2581,24 +2796,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="n">
+        <v>20</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>testID_072</t>
+          <t>test_ID_072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2611,24 +2829,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>testID_073</t>
+          <t>test_ID_073</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2641,24 +2862,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="n">
+        <v>20</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>testID_074</t>
+          <t>test_ID_074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2671,24 +2895,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>testID_075</t>
+          <t>test_ID_075</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2701,24 +2928,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>testID_076</t>
+          <t>test_ID_076</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2731,24 +2961,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="n">
+        <v>100</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>testID_077</t>
+          <t>test_ID_077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2761,24 +2994,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>testID_078</t>
+          <t>test_ID_078</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2791,24 +3027,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="n">
+        <v>100</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>testID_079</t>
+          <t>test_ID_079</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2821,24 +3060,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="n">
+        <v>100</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>testID_080</t>
+          <t>test_ID_080</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2851,24 +3093,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="n">
+        <v>100</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>testID_081</t>
+          <t>test_ID_081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2881,24 +3126,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>testID_082</t>
+          <t>test_ID_082</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2911,24 +3159,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>testID_083</t>
+          <t>test_ID_083</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2941,24 +3192,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>testID_084</t>
+          <t>test_ID_084</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2971,24 +3225,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>testID_085</t>
+          <t>test_ID_085</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3001,24 +3258,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="n">
+        <v>100</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>testID_086</t>
+          <t>test_ID_086</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3031,24 +3291,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>testID_087</t>
+          <t>test_ID_087</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3061,24 +3324,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="n">
+        <v>100</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>testID_088</t>
+          <t>test_ID_088</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3091,24 +3357,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="n">
+        <v>100</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>testID_089</t>
+          <t>test_ID_089</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3121,24 +3390,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>testID_090</t>
+          <t>test_ID_090</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3151,24 +3423,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>testID_091</t>
+          <t>test_ID_091</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3181,24 +3456,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>testID_092</t>
+          <t>test_ID_092</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3211,24 +3489,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="n">
+        <v>100</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>testID_093</t>
+          <t>test_ID_093</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3241,24 +3522,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="n">
+        <v>150</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>testID_094</t>
+          <t>test_ID_094</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3271,24 +3555,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="n">
+        <v>150</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>testID_095</t>
+          <t>test_ID_095</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3301,24 +3588,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="n">
+        <v>150</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>testID_096</t>
+          <t>test_ID_096</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3331,24 +3621,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="n">
+        <v>150</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>testID_097</t>
+          <t>test_ID_097</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3361,24 +3654,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="n">
+        <v>150</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>testID_098</t>
+          <t>test_ID_098</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3391,24 +3687,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="n">
+        <v>150</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>testID_099</t>
+          <t>test_ID_099</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3421,24 +3720,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="n">
+        <v>150</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>testID_100</t>
+          <t>test_ID_100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3451,24 +3753,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="n">
+        <v>150</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>testID_101</t>
+          <t>test_ID_101</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3481,24 +3786,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="n">
+        <v>150</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>testID_102</t>
+          <t>test_ID_102</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3511,24 +3819,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="n">
+        <v>150</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>testID_103</t>
+          <t>test_ID_103</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3541,24 +3852,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="n">
+        <v>150</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>testID_104</t>
+          <t>test_ID_104</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3571,24 +3885,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="n">
+        <v>150</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>testID_105</t>
+          <t>test_ID_105</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3601,24 +3918,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="n">
+        <v>200</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>testID_106</t>
+          <t>test_ID_106</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3631,24 +3951,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="n">
+        <v>200</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>testID_107</t>
+          <t>test_ID_107</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3661,24 +3984,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="n">
+        <v>200</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>testID_108</t>
+          <t>test_ID_108</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3691,24 +4017,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>testID_109</t>
+          <t>test_ID_109</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3721,24 +4050,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>testID_110</t>
+          <t>test_ID_110</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3751,24 +4083,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>testID_111</t>
+          <t>test_ID_111</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3781,24 +4116,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="n">
+        <v>200</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>testID_112</t>
+          <t>test_ID_112</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3811,24 +4149,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="n">
+        <v>200</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>testID_113</t>
+          <t>test_ID_113</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3841,24 +4182,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="n">
+        <v>200</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>testID_114</t>
+          <t>test_ID_114</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3871,24 +4215,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="n">
+        <v>200</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>testID_115</t>
+          <t>test_ID_115</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3901,24 +4248,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>testID_116</t>
+          <t>test_ID_116</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3931,24 +4281,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>testID_117</t>
+          <t>test_ID_117</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3961,24 +4314,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>testID_118</t>
+          <t>test_ID_118</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3991,24 +4347,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>testID_119</t>
+          <t>test_ID_119</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4021,24 +4380,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>testID_120</t>
+          <t>test_ID_120</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4051,24 +4413,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>testID_121</t>
+          <t>test_ID_121</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4081,24 +4446,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="n">
+        <v>200</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>testID_122</t>
+          <t>test_ID_122</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4111,24 +4479,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="n">
+        <v>200</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>testID_123</t>
+          <t>test_ID_123</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4141,24 +4512,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="n">
+        <v>200</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>testID_124</t>
+          <t>test_ID_124</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4171,24 +4545,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="n">
+        <v>250</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>testID_125</t>
+          <t>test_ID_125</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4201,24 +4578,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="n">
+        <v>250</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>testID_126</t>
+          <t>test_ID_126</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4231,24 +4611,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D127" t="n">
+        <v>250</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>testID_127</t>
+          <t>test_ID_127</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4261,24 +4644,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="n">
+        <v>250</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>testID_128</t>
+          <t>test_ID_128</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4291,24 +4677,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="n">
+        <v>250</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>testID_129</t>
+          <t>test_ID_129</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4321,24 +4710,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="n">
+        <v>250</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>testID_130</t>
+          <t>test_ID_130</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4351,24 +4743,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="n">
+        <v>250</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>testID_131</t>
+          <t>test_ID_131</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4381,24 +4776,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="n">
+        <v>250</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>testID_132</t>
+          <t>test_ID_132</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4411,24 +4809,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D133" t="n">
+        <v>250</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>testID_133</t>
+          <t>test_ID_133</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4441,24 +4842,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="n">
+        <v>250</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>testID_134</t>
+          <t>test_ID_134</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4471,24 +4875,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="n">
+        <v>250</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>testID_135</t>
+          <t>test_ID_135</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4501,24 +4908,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="n">
+        <v>250</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>testID_136</t>
+          <t>test_ID_136</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4531,24 +4941,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="n">
+        <v>300</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>testID_137</t>
+          <t>test_ID_137</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4561,24 +4974,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="n">
+        <v>300</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>testID_138</t>
+          <t>test_ID_138</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4591,24 +5007,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="n">
+        <v>300</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>testID_139</t>
+          <t>test_ID_139</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4621,24 +5040,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="n">
+        <v>300</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>testID_140</t>
+          <t>test_ID_140</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4651,24 +5073,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="n">
+        <v>300</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>testID_141</t>
+          <t>test_ID_141</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4681,24 +5106,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="n">
+        <v>300</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>testID_142</t>
+          <t>test_ID_142</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4711,24 +5139,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="n">
+        <v>300</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>testID_143</t>
+          <t>test_ID_143</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4741,24 +5172,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D144" t="n">
+        <v>300</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>testID_144</t>
+          <t>test_ID_144</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4771,24 +5205,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="n">
+        <v>300</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>testID_145</t>
+          <t>test_ID_145</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4801,24 +5238,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="n">
+        <v>300</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>testID_146</t>
+          <t>test_ID_146</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4831,24 +5271,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D147" t="n">
+        <v>300</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>testID_147</t>
+          <t>test_ID_147</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4861,24 +5304,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D148" t="n">
+        <v>300</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>testID_148</t>
+          <t>test_ID_148</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4891,24 +5337,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" t="n">
+        <v>300</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>testID_149</t>
+          <t>test_ID_149</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4921,24 +5370,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="n">
+        <v>300</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>testID_150</t>
+          <t>test_ID_150</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4951,24 +5403,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="n">
+        <v>300</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>testID_151</t>
+          <t>test_ID_151</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4981,24 +5436,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="n">
+        <v>300</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>testID_152</t>
+          <t>test_ID_152</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5011,24 +5469,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="n">
+        <v>300</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>testID_153</t>
+          <t>test_ID_153</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5041,24 +5502,27 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="n">
+        <v>300</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
         <v>0.000866</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>testID_154</t>
+          <t>test_ID_154</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5071,17 +5535,20 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="n">
+        <v>300</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
         <v>0.000866</v>
       </c>
     </row>
